--- a/zztechnotes/TimeZoneDtoAnalysis.xlsx
+++ b/zztechnotes/TimeZoneDtoAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gowork\src\MikeAustin71\datetimeopsgo\zztechnotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F066B14C-06A8-44A8-BEE3-190905179A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2E43E-E1D5-4FE9-A33E-08C256FD6757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="1215" windowWidth="26970" windowHeight="10590" activeTab="1" xr2:uid="{BB616160-6986-4F41-910C-3E9BE1A49174}"/>
+    <workbookView xWindow="0" yWindow="2805" windowWidth="26970" windowHeight="10590" activeTab="1" xr2:uid="{BB616160-6986-4F41-910C-3E9BE1A49174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31663B88-5635-4DE2-9BEF-F84975BB26A0}">
   <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
